--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_04_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_04_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FBE292-79B1-40FC-AE3D-79F8A6BFC2E2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF73054-3004-4031-92F7-EDB751BC6018}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -339,6 +339,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -484,7 +515,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -492,12 +523,6 @@
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,9 +534,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -523,21 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,6 +581,33 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="13" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1061,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1074,389 +1108,377 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="14" max="14" width="1.375" customWidth="1"/>
-    <col min="16" max="16" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="6"/>
+    <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
-    <row r="2" spans="1:16" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+    <row r="2" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="19" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="6"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
-    <row r="3" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="13" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="14" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="14" t="s">
+      <c r="N3" s="7"/>
+      <c r="O3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="14">
         <v>4000</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="22">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14">
         <v>4000</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="9"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="19">
         <v>3600</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="27">
+      <c r="D5" s="15"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="19">
         <v>3600</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="9"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="19">
         <v>-2800</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="27">
+      <c r="D6" s="15"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="19">
         <v>2800</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="9"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="27">
+      <c r="C7" s="19"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="19">
         <v>800</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27">
+      <c r="H7" s="15"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19">
         <v>800</v>
       </c>
-      <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="27">
+      <c r="C8" s="19"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="19">
         <v>1600</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="27">
+      <c r="F8" s="15"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="19">
         <v>1600</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="9"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="19">
         <v>-700</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="27">
+      <c r="D9" s="15"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="19">
         <v>-700</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="9"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="27">
+      <c r="C10" s="19"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="19">
         <v>400</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27">
+      <c r="H10" s="15"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19">
         <v>400</v>
       </c>
-      <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="27">
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="19">
         <v>2100</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="27">
+      <c r="F11" s="15"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="19">
         <v>2100</v>
       </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="9"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="19">
         <v>1600</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="27">
+      <c r="D12" s="15"/>
+      <c r="E12" s="19">
         <v>-1600</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="21">
         <f>SUM(C4:C12)</f>
         <v>5700</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="29">
+      <c r="D13" s="15"/>
+      <c r="E13" s="21">
         <f>SUM(E4:E12)</f>
         <v>2100</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="29">
+      <c r="F13" s="15"/>
+      <c r="G13" s="21">
         <f>SUM(G4:G12)</f>
         <v>500</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="29">
+      <c r="H13" s="15"/>
+      <c r="I13" s="21">
         <f>SUM(I4:I12)</f>
         <v>4000</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="29">
+      <c r="J13" s="15"/>
+      <c r="K13" s="21">
         <f>SUM(K4:K12)</f>
         <v>7300</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="30">
+      <c r="L13" s="20"/>
+      <c r="M13" s="22">
         <f>SUM(M4:M12)</f>
         <v>2800</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="30">
+      <c r="N13" s="20"/>
+      <c r="O13" s="22">
         <f>SUM(O4:O12)</f>
         <v>1200</v>
       </c>
-      <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="15"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C2:E2"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_04_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_04_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF73054-3004-4031-92F7-EDB751BC6018}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EB40C3-7457-4CF6-A240-5E72B94EF60A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -546,30 +546,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -583,21 +563,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -608,6 +573,40 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1098,7 +1097,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1108,41 +1107,41 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="14" max="14" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1152,19 +1151,19 @@
         <v>4</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="27" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1198,266 +1197,266 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="29">
         <v>4000</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14">
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="29">
         <v>4000</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="14"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="34">
         <v>3600</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="19">
+      <c r="D5" s="30"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="34">
         <v>3600</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="34">
         <v>-2800</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="19">
+      <c r="D6" s="30"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="34">
         <v>2800</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="19">
+      <c r="C7" s="34"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="34">
         <v>800</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19">
+      <c r="H7" s="30"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34">
         <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="19">
+      <c r="C8" s="34"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="34">
         <v>1600</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="19">
+      <c r="F8" s="30"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="34">
         <v>1600</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="34">
         <v>-700</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="19">
+      <c r="D9" s="30"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="34">
         <v>-700</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="19">
+      <c r="C10" s="34"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="34">
         <v>400</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19">
+      <c r="H10" s="30"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="19">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="34">
         <v>2100</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="19">
+      <c r="F11" s="30"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="34">
         <v>2100</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="34">
         <v>1600</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="19">
+      <c r="D12" s="30"/>
+      <c r="E12" s="34">
         <v>-1600</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="19"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="16">
         <f>SUM(C4:C12)</f>
         <v>5700</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="21">
+      <c r="D13" s="14"/>
+      <c r="E13" s="16">
         <f>SUM(E4:E12)</f>
         <v>2100</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="21">
+      <c r="F13" s="14"/>
+      <c r="G13" s="16">
         <f>SUM(G4:G12)</f>
         <v>500</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="21">
+      <c r="H13" s="14"/>
+      <c r="I13" s="16">
         <f>SUM(I4:I12)</f>
         <v>4000</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="21">
+      <c r="J13" s="14"/>
+      <c r="K13" s="16">
         <f>SUM(K4:K12)</f>
         <v>7300</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="22">
+      <c r="L13" s="15"/>
+      <c r="M13" s="17">
         <f>SUM(M4:M12)</f>
         <v>2800</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="22">
+      <c r="N13" s="15"/>
+      <c r="O13" s="17">
         <f>SUM(O4:O12)</f>
         <v>1200</v>
       </c>
@@ -1479,6 +1478,7 @@
       <c r="O14" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C2:E2"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_04_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_IE_04_Final.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EB40C3-7457-4CF6-A240-5E72B94EF60A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDA62E3-5C6A-41CA-82AD-7BD319AB4B73}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -323,17 +323,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFFABF8F"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -370,6 +359,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -540,7 +540,7 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,60 +553,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="13" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1114,34 +1113,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1151,19 +1150,19 @@
         <v>4</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="26" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
@@ -1197,207 +1196,207 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="22">
         <v>4000</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29">
+      <c r="D4" s="23"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="22">
         <v>4000</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="29"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="22"/>
     </row>
     <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="27">
         <v>3600</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="34">
+      <c r="D5" s="23"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="27">
         <v>3600</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="27"/>
     </row>
     <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="27">
         <v>-2800</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="34">
+      <c r="D6" s="23"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="27">
         <v>2800</v>
       </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="34">
+      <c r="C7" s="27"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="27">
         <v>800</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34">
+      <c r="H7" s="23"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27">
         <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="34">
+      <c r="C8" s="27"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="27">
         <v>1600</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="34">
+      <c r="F8" s="23"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="27">
         <v>1600</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="27"/>
     </row>
     <row r="9" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="27">
         <v>-700</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="34">
+      <c r="D9" s="23"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="27">
         <v>-700</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
     </row>
     <row r="10" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="34">
+      <c r="C10" s="27"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="27">
         <v>400</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34">
+      <c r="H10" s="23"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="34">
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="27">
         <v>2100</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="34">
+      <c r="F11" s="23"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="27">
         <v>2100</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1406,57 +1405,57 @@
       <c r="C12" s="34">
         <v>1600</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="34">
         <v>-1600</v>
       </c>
-      <c r="F12" s="30"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="30"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="30"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="35">
         <f>SUM(C4:C12)</f>
         <v>5700</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="16">
+      <c r="E13" s="35">
         <f>SUM(E4:E12)</f>
         <v>2100</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="16">
+      <c r="G13" s="35">
         <f>SUM(G4:G12)</f>
         <v>500</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="16">
+      <c r="I13" s="35">
         <f>SUM(I4:I12)</f>
         <v>4000</v>
       </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="16">
+      <c r="K13" s="35">
         <f>SUM(K4:K12)</f>
         <v>7300</v>
       </c>
       <c r="L13" s="15"/>
-      <c r="M13" s="17">
+      <c r="M13" s="35">
         <f>SUM(M4:M12)</f>
         <v>2800</v>
       </c>
       <c r="N13" s="15"/>
-      <c r="O13" s="17">
+      <c r="O13" s="35">
         <f>SUM(O4:O12)</f>
         <v>1200</v>
       </c>
@@ -1478,7 +1477,6 @@
       <c r="O14" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C2:E2"/>
